--- a/数据.xlsx
+++ b/数据.xlsx
@@ -87,8 +87,8 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="186" formatCode="0.0000000"/>
+    <numFmt numFmtId="179" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,8 +132,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,18 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -448,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4.99</v>
       </c>
@@ -473,8 +475,20 @@
         <f>F2^(-2)</f>
         <v>3.2148964297896449E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <f>_xlfn.STDEV.P(C2:E2)</f>
+        <v>9.428090415820432E-3</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.STDEV.S(C2:E2)</f>
+        <v>1.154700538379227E-2</v>
+      </c>
+      <c r="M2">
+        <f>_xlfn.STDEV.S(B2:B8)*SQRT(6)</f>
+        <v>26.470757450439514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -499,16 +513,28 @@
         <f t="shared" ref="G3:G8" si="1">F3^(-2)</f>
         <v>8.0628681539194388E-3</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="2">_xlfn.STDEV.P(C3:E3)</f>
+        <v>1.6996731711976167E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">_xlfn.STDEV.S(C3:E3)</f>
+        <v>2.0816659994661594E-2</v>
+      </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <f>L8/M2</f>
+        <v>3.7672886310166699E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4.9800000000000004</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B8" si="2">B3+A4</f>
+        <f t="shared" ref="B4:B8" si="4">B3+A4</f>
         <v>14.97</v>
       </c>
       <c r="C4" s="1">
@@ -528,17 +554,29 @@
         <f t="shared" si="1"/>
         <v>1.2549353819828094E-2</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>5.5577773335110416E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>6.8068592855540691E-2</v>
+      </c>
       <c r="J4">
         <f>0.02505^2*9.8/B9/2/0.86</f>
         <v>3.7103910502332531</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <f>SQRT(M3^2+0.00000000012)</f>
+        <v>1.1584147082517015E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>5.01</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.98</v>
       </c>
       <c r="C5" s="1">
@@ -558,13 +596,21 @@
         <f t="shared" si="1"/>
         <v>1.7777777777777778E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C6" s="1">
@@ -584,13 +630,21 @@
         <f t="shared" si="1"/>
         <v>2.2522516886257032E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4.1899350299921596E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5.1316014394468618E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5.01</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.009999999999998</v>
       </c>
       <c r="C7" s="1">
@@ -610,13 +664,21 @@
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>4.9800000000000004</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.989999999999995</v>
       </c>
       <c r="C8" s="1">
@@ -636,8 +698,28 @@
         <f t="shared" si="1"/>
         <v>3.1736449241428343E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>9.4280904158208518E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.1547005383792781E-2</v>
+      </c>
+      <c r="J8">
+        <f>I8/SQRT(3)</f>
+        <v>6.6666666666668206E-3</v>
+      </c>
+      <c r="K8">
+        <f>SQRT(J8^2+0.0001/3)</f>
+        <v>8.8191710368820848E-3</v>
+      </c>
+      <c r="L8">
+        <f>2*K8/F8^3</f>
+        <v>9.9722983597440589E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <f>CORREL(B2:B8,G2:G8)</f>
         <v>0.99965422352973299</v>
@@ -647,7 +729,7 @@
         <v>9.6359248754540432E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -673,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>1.0009999999999999</v>
       </c>
@@ -703,7 +785,7 @@
         <v>40.41341671170882</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>1.4950000000000001</v>
       </c>
@@ -717,19 +799,19 @@
         <v>12.79</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E16" si="3">AVERAGE(B13:D13)</f>
+        <f t="shared" ref="E13:E16" si="5">AVERAGE(B13:D13)</f>
         <v>12.743333333333332</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F16" si="4">E13^(-2)</f>
+        <f t="shared" ref="F13:F16" si="6">E13^(-2)</f>
         <v>6.157918169341246E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G16" si="5">F13/A13</f>
+        <f t="shared" ref="G13:G16" si="7">F13/A13</f>
         <v>4.11900880892391E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -743,19 +825,19 @@
         <v>9.49</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5233333333333334</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1026102582693011E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5130512913465057E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2.5049999999999999</v>
       </c>
@@ -769,19 +851,19 @@
         <v>7.53</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5333333333333341</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7620800375910406E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0342516470700226E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>3.0019999999999998</v>
       </c>
@@ -795,15 +877,15 @@
         <v>6.27</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.2899999999999991</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.527543909756573E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.4195333436261604E-3</v>
       </c>
     </row>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -417,14 +417,13 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -514,11 +513,11 @@
         <v>8.0628681539194388E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="2">_xlfn.STDEV.P(C3:E3)</f>
+        <f t="shared" ref="H3:H16" si="2">_xlfn.STDEV.P(C3:E3)</f>
         <v>1.6996731711976167E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="3">_xlfn.STDEV.S(C3:E3)</f>
+        <f t="shared" ref="I3:I16" si="3">_xlfn.STDEV.S(C3:E3)</f>
         <v>2.0816659994661594E-2</v>
       </c>
       <c r="J3" t="s">
@@ -728,6 +727,24 @@
         <f>SLOPE(G2:G8,B2:B8)</f>
         <v>9.6359248754540432E-4</v>
       </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -751,6 +768,14 @@
       <c r="G11" t="s">
         <v>10</v>
       </c>
+      <c r="H11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
@@ -780,10 +805,22 @@
         <f>F12/A12</f>
         <v>2.8185065983298866E-3</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.6405358955816091E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2.0092379244473831E-2</v>
+      </c>
       <c r="J12">
         <f>0.01998*9.8/2/0.86/B17</f>
         <v>40.41341671170882</v>
       </c>
+      <c r="M12">
+        <f>_xlfn.STDEV.S(A12:A16)*2</f>
+        <v>1.5849458034898218</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -810,6 +847,18 @@
         <f t="shared" ref="G13:G16" si="7">F13/A13</f>
         <v>4.11900880892391E-3</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2.5724082006200688E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.1505437508350949E-2</v>
+      </c>
+      <c r="M13">
+        <f>L16/M12</f>
+        <v>1.4896804859718938E-5</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
@@ -836,6 +885,18 @@
         <f t="shared" si="7"/>
         <v>5.5130512913465057E-3</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.749779527558153E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2.1430335024428454E-2</v>
+      </c>
+      <c r="M14">
+        <f>SQRT(M13^2+0.00000000133)</f>
+        <v>3.9394349785578969E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -862,6 +923,14 @@
         <f t="shared" si="7"/>
         <v>7.0342516470700226E-3</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.3425606637326901E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.6442942874386999E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -887,6 +956,29 @@
       <c r="G16">
         <f t="shared" si="7"/>
         <v>8.4195333436261604E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>9.4280904158206419E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.1547005383792526E-2</v>
+      </c>
+      <c r="J16">
+        <v>6.6670000000000002E-3</v>
+      </c>
+      <c r="K16">
+        <f>SQRT(J16^2+0.0001/3)</f>
+        <v>8.819423015896978E-3</v>
+      </c>
+      <c r="L16">
+        <f>2*K16/E16^3/A16</f>
+        <v>2.3610628347818315E-5</v>
+      </c>
+      <c r="M16">
+        <f>0.001/A16^2/E16^2</f>
+        <v>2.804641353639627E-6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
